--- a/ch9.geo/CoffeeBean2.xlsx
+++ b/ch9.geo/CoffeeBean2.xlsx
@@ -2742,199 +2742,200 @@
     <t>051-728-7435</t>
   </si>
   <si>
+    <t>수원송죽DT점</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경기도 수원시 장안구 경수대로 989  </t>
+  </si>
+  <si>
+    <t>031-248-6086</t>
+  </si>
+  <si>
+    <t>경기도 수원시 장안구 경수대로 989</t>
+  </si>
+  <si>
+    <t>동교동삼거리점</t>
+  </si>
+  <si>
+    <t xml:space="preserve">서울특별시 마포구 양화로 196(동교동)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">02-336-9198 </t>
+  </si>
+  <si>
+    <t>서울특별시 마포구 양화로 196(동교동)</t>
+  </si>
+  <si>
+    <t>성남신흥점</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경기도 성남시 수정구 수정로 190 (신흥동)  </t>
+  </si>
+  <si>
+    <t>031-759-6675</t>
+  </si>
+  <si>
+    <t>경기도 성남시 수정구 수정로 190 (신흥동)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">응암동점 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">서울시 은평구 은평로 121(응암동)&amp; 메디컬빌딩  </t>
+  </si>
+  <si>
+    <t>02-389-6283</t>
+  </si>
+  <si>
+    <t>서울특별시 은평구 은평로 121(응암동)&amp; 메디컬빌딩</t>
+  </si>
+  <si>
+    <t>서수원이마트점</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경기도 수원시 권선구 수인로 291(구운동)&amp; 이마트 서수원점 1층  </t>
+  </si>
+  <si>
+    <t>031-278-6593</t>
+  </si>
+  <si>
+    <t>경기도 수원시 권선구 수인로 291(구운동)&amp; 이마트 서수원점 1층</t>
+  </si>
+  <si>
+    <t>양천향교역점</t>
+  </si>
+  <si>
+    <t xml:space="preserve">서울특별시 강서구 강서로 457(마곡동)  </t>
+  </si>
+  <si>
+    <t>02-3665-9506</t>
+  </si>
+  <si>
+    <t>서울특별시 강서구 강서로 457(마곡동)</t>
+  </si>
+  <si>
+    <t>성균관대 자연과학캠퍼스점</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경기 수원시 장안구 서부로 2066&amp; 성균관대 자연과학 캠퍼스 N센터 1층  </t>
+  </si>
+  <si>
+    <t>031-278-7640</t>
+  </si>
+  <si>
+    <t>경기도 수원시 장안구 서부로 2066&amp; 성균관대 자연과학 캠퍼스 N센터 1층</t>
+  </si>
+  <si>
+    <t xml:space="preserve">마곡마커스빌딩점 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">서울특별시 강서구 마곡동로 55 마커스빌딩 1층  </t>
+  </si>
+  <si>
+    <t>02-6905-3030</t>
+  </si>
+  <si>
+    <t>서울특별시 강서구 마곡동로 55 마커스빌딩 1층</t>
+  </si>
+  <si>
+    <t>방이역4번출구점</t>
+  </si>
+  <si>
+    <t xml:space="preserve">서울 송파구 방이동 206-11  </t>
+  </si>
+  <si>
+    <t>02-420-0386</t>
+  </si>
+  <si>
+    <t>서울특별시 송파구 방이동 206-11</t>
+  </si>
+  <si>
+    <t>IFC MALL 3호점</t>
+  </si>
+  <si>
+    <t xml:space="preserve">서울시 영등포구 국제금융로10 IFC Mall L2(2층)  </t>
+  </si>
+  <si>
+    <t>02-6137-5056</t>
+  </si>
+  <si>
+    <t>서울특별시 영등포구 국제금융로10 IFC Mall L2(2층)</t>
+  </si>
+  <si>
+    <t>동탄능동DT점</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경기도 화성시 능동 453-4&amp;453-8&amp;454-1 소재 건물(1~3층)  </t>
+  </si>
+  <si>
+    <t>031-267-4182</t>
+  </si>
+  <si>
+    <t>경기도 화성시 능동 453-4&amp;453-8&amp;454-1 소재 건물(1~3층)</t>
+  </si>
+  <si>
+    <t>수원인계DT점</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경기도 수원시 팔달구 인계로79 (인계동)  </t>
+  </si>
+  <si>
+    <t>031-898-8818</t>
+  </si>
+  <si>
+    <t>경기도 수원시 팔달구 인계로79 (인계동)</t>
+  </si>
+  <si>
+    <t>인천공항 제2여객터미널 입구점</t>
+  </si>
+  <si>
+    <t xml:space="preserve">인천광역시 중구 운서동 2868 인천공항 제2터미널 1층 연번(23-124)  </t>
+  </si>
+  <si>
+    <t>032-743-2894</t>
+  </si>
+  <si>
+    <t>인천광역시 중구 운서동 2868 인천공항 제2터미널 1층 연번(23-124)</t>
+  </si>
+  <si>
+    <t>부산서면서전로점</t>
+  </si>
+  <si>
+    <t xml:space="preserve">부산광역시 부산진구 서전로 12&amp; 1층  </t>
+  </si>
+  <si>
+    <t>051-819-8708</t>
+  </si>
+  <si>
+    <t>부산광역시 부산진구 서전로 12&amp; 1층</t>
+  </si>
+  <si>
+    <t>분당차병원본관앞점</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경기도 성남시 분당구 야탑로64 DS타워 1층  </t>
+  </si>
+  <si>
+    <t>031-8017-8243</t>
+  </si>
+  <si>
+    <t>경기도 성남시 분당구 야탑로64 DS타워 1층</t>
+  </si>
+  <si>
+    <t>신용산역래미안점</t>
+  </si>
+  <si>
+    <t xml:space="preserve">서울시 용산구 한강대로95  </t>
+  </si>
+  <si>
+    <t>02-2074-1049</t>
+  </si>
+  <si>
+    <t>서울특별시 용산구 한강대로95</t>
+  </si>
+  <si>
     <t>부산광역시 기장군 정관로 563 1층&amp;2층</t>
-  </si>
-  <si>
-    <t>수원송죽DT점</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경기도 수원시 장안구 경수대로 989  </t>
-  </si>
-  <si>
-    <t>031-248-6086</t>
-  </si>
-  <si>
-    <t>경기도 수원시 장안구 경수대로 989</t>
-  </si>
-  <si>
-    <t>동교동삼거리점</t>
-  </si>
-  <si>
-    <t xml:space="preserve">서울특별시 마포구 양화로 196(동교동)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">02-336-9198 </t>
-  </si>
-  <si>
-    <t>서울특별시 마포구 양화로 196(동교동)</t>
-  </si>
-  <si>
-    <t>성남신흥점</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경기도 성남시 수정구 수정로 190 (신흥동)  </t>
-  </si>
-  <si>
-    <t>031-759-6675</t>
-  </si>
-  <si>
-    <t>경기도 성남시 수정구 수정로 190 (신흥동)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">응암동점 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">서울시 은평구 은평로 121(응암동)&amp; 메디컬빌딩  </t>
-  </si>
-  <si>
-    <t>02-389-6283</t>
-  </si>
-  <si>
-    <t>서울특별시 은평구 은평로 121(응암동)&amp; 메디컬빌딩</t>
-  </si>
-  <si>
-    <t>서수원이마트점</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경기도 수원시 권선구 수인로 291(구운동)&amp; 이마트 서수원점 1층  </t>
-  </si>
-  <si>
-    <t>031-278-6593</t>
-  </si>
-  <si>
-    <t>경기도 수원시 권선구 수인로 291(구운동)&amp; 이마트 서수원점 1층</t>
-  </si>
-  <si>
-    <t>양천향교역점</t>
-  </si>
-  <si>
-    <t xml:space="preserve">서울특별시 강서구 강서로 457(마곡동)  </t>
-  </si>
-  <si>
-    <t>02-3665-9506</t>
-  </si>
-  <si>
-    <t>서울특별시 강서구 강서로 457(마곡동)</t>
-  </si>
-  <si>
-    <t>성균관대 자연과학캠퍼스점</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경기 수원시 장안구 서부로 2066&amp; 성균관대 자연과학 캠퍼스 N센터 1층  </t>
-  </si>
-  <si>
-    <t>031-278-7640</t>
-  </si>
-  <si>
-    <t>경기도 수원시 장안구 서부로 2066&amp; 성균관대 자연과학 캠퍼스 N센터 1층</t>
-  </si>
-  <si>
-    <t xml:space="preserve">마곡마커스빌딩점 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">서울특별시 강서구 마곡동로 55 마커스빌딩 1층  </t>
-  </si>
-  <si>
-    <t>02-6905-3030</t>
-  </si>
-  <si>
-    <t>서울특별시 강서구 마곡동로 55 마커스빌딩 1층</t>
-  </si>
-  <si>
-    <t>방이역4번출구점</t>
-  </si>
-  <si>
-    <t xml:space="preserve">서울 송파구 방이동 206-11  </t>
-  </si>
-  <si>
-    <t>02-420-0386</t>
-  </si>
-  <si>
-    <t>서울특별시 송파구 방이동 206-11</t>
-  </si>
-  <si>
-    <t>IFC MALL 3호점</t>
-  </si>
-  <si>
-    <t xml:space="preserve">서울시 영등포구 국제금융로10 IFC Mall L2(2층)  </t>
-  </si>
-  <si>
-    <t>02-6137-5056</t>
-  </si>
-  <si>
-    <t>서울특별시 영등포구 국제금융로10 IFC Mall L2(2층)</t>
-  </si>
-  <si>
-    <t>동탄능동DT점</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경기도 화성시 능동 453-4&amp;453-8&amp;454-1 소재 건물(1~3층)  </t>
-  </si>
-  <si>
-    <t>031-267-4182</t>
-  </si>
-  <si>
-    <t>경기도 화성시 능동 453-4&amp;453-8&amp;454-1 소재 건물(1~3층)</t>
-  </si>
-  <si>
-    <t>수원인계DT점</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경기도 수원시 팔달구 인계로79 (인계동)  </t>
-  </si>
-  <si>
-    <t>031-898-8818</t>
-  </si>
-  <si>
-    <t>경기도 수원시 팔달구 인계로79 (인계동)</t>
-  </si>
-  <si>
-    <t>인천공항 제2여객터미널 입구점</t>
-  </si>
-  <si>
-    <t xml:space="preserve">인천광역시 중구 운서동 2868 인천공항 제2터미널 1층 연번(23-124)  </t>
-  </si>
-  <si>
-    <t>032-743-2894</t>
-  </si>
-  <si>
-    <t>인천광역시 중구 운서동 2868 인천공항 제2터미널 1층 연번(23-124)</t>
-  </si>
-  <si>
-    <t>부산서면서전로점</t>
-  </si>
-  <si>
-    <t xml:space="preserve">부산광역시 부산진구 서전로 12&amp; 1층  </t>
-  </si>
-  <si>
-    <t>051-819-8708</t>
-  </si>
-  <si>
-    <t>부산광역시 부산진구 서전로 12&amp; 1층</t>
-  </si>
-  <si>
-    <t>분당차병원본관앞점</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경기도 성남시 분당구 야탑로64 DS타워 1층  </t>
-  </si>
-  <si>
-    <t>031-8017-8243</t>
-  </si>
-  <si>
-    <t>경기도 성남시 분당구 야탑로64 DS타워 1층</t>
-  </si>
-  <si>
-    <t>신용산역래미안점</t>
-  </si>
-  <si>
-    <t xml:space="preserve">서울시 용산구 한강대로95  </t>
-  </si>
-  <si>
-    <t>02-2074-1049</t>
-  </si>
-  <si>
-    <t>서울특별시 용산구 한강대로95</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3855,7 +3856,7 @@
   <dimension ref="A1:D243"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="A243" sqref="A243"/>
+      <selection activeCell="D227" sqref="D227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7039,231 +7040,231 @@
         <v>906</v>
       </c>
       <c r="D227" t="s">
-        <v>907</v>
+        <v>971</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
+        <v>907</v>
+      </c>
+      <c r="B228" t="s">
         <v>908</v>
       </c>
-      <c r="B228" t="s">
+      <c r="C228" t="s">
         <v>909</v>
       </c>
-      <c r="C228" t="s">
+      <c r="D228" t="s">
         <v>910</v>
-      </c>
-      <c r="D228" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
+        <v>911</v>
+      </c>
+      <c r="B229" t="s">
         <v>912</v>
       </c>
-      <c r="B229" t="s">
+      <c r="C229" t="s">
         <v>913</v>
       </c>
-      <c r="C229" t="s">
+      <c r="D229" t="s">
         <v>914</v>
-      </c>
-      <c r="D229" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
+        <v>915</v>
+      </c>
+      <c r="B230" t="s">
         <v>916</v>
       </c>
-      <c r="B230" t="s">
+      <c r="C230" t="s">
         <v>917</v>
       </c>
-      <c r="C230" t="s">
+      <c r="D230" t="s">
         <v>918</v>
-      </c>
-      <c r="D230" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
+        <v>919</v>
+      </c>
+      <c r="B231" t="s">
         <v>920</v>
       </c>
-      <c r="B231" t="s">
+      <c r="C231" t="s">
         <v>921</v>
       </c>
-      <c r="C231" t="s">
+      <c r="D231" t="s">
         <v>922</v>
-      </c>
-      <c r="D231" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
+        <v>923</v>
+      </c>
+      <c r="B232" t="s">
         <v>924</v>
       </c>
-      <c r="B232" t="s">
+      <c r="C232" t="s">
         <v>925</v>
       </c>
-      <c r="C232" t="s">
+      <c r="D232" t="s">
         <v>926</v>
-      </c>
-      <c r="D232" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
+        <v>927</v>
+      </c>
+      <c r="B233" t="s">
         <v>928</v>
       </c>
-      <c r="B233" t="s">
+      <c r="C233" t="s">
         <v>929</v>
       </c>
-      <c r="C233" t="s">
+      <c r="D233" t="s">
         <v>930</v>
-      </c>
-      <c r="D233" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
+        <v>931</v>
+      </c>
+      <c r="B234" t="s">
         <v>932</v>
       </c>
-      <c r="B234" t="s">
+      <c r="C234" t="s">
         <v>933</v>
       </c>
-      <c r="C234" t="s">
+      <c r="D234" t="s">
         <v>934</v>
-      </c>
-      <c r="D234" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
+        <v>935</v>
+      </c>
+      <c r="B235" t="s">
         <v>936</v>
       </c>
-      <c r="B235" t="s">
+      <c r="C235" t="s">
         <v>937</v>
       </c>
-      <c r="C235" t="s">
+      <c r="D235" t="s">
         <v>938</v>
-      </c>
-      <c r="D235" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
+        <v>939</v>
+      </c>
+      <c r="B236" t="s">
         <v>940</v>
       </c>
-      <c r="B236" t="s">
+      <c r="C236" t="s">
         <v>941</v>
       </c>
-      <c r="C236" t="s">
+      <c r="D236" t="s">
         <v>942</v>
-      </c>
-      <c r="D236" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
+        <v>943</v>
+      </c>
+      <c r="B237" t="s">
         <v>944</v>
       </c>
-      <c r="B237" t="s">
+      <c r="C237" t="s">
         <v>945</v>
       </c>
-      <c r="C237" t="s">
+      <c r="D237" t="s">
         <v>946</v>
-      </c>
-      <c r="D237" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
+        <v>947</v>
+      </c>
+      <c r="B238" t="s">
         <v>948</v>
       </c>
-      <c r="B238" t="s">
+      <c r="C238" t="s">
         <v>949</v>
       </c>
-      <c r="C238" t="s">
+      <c r="D238" t="s">
         <v>950</v>
-      </c>
-      <c r="D238" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
+        <v>951</v>
+      </c>
+      <c r="B239" t="s">
         <v>952</v>
       </c>
-      <c r="B239" t="s">
+      <c r="C239" t="s">
         <v>953</v>
       </c>
-      <c r="C239" t="s">
+      <c r="D239" t="s">
         <v>954</v>
-      </c>
-      <c r="D239" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
+        <v>955</v>
+      </c>
+      <c r="B240" t="s">
         <v>956</v>
       </c>
-      <c r="B240" t="s">
+      <c r="C240" t="s">
         <v>957</v>
       </c>
-      <c r="C240" t="s">
+      <c r="D240" t="s">
         <v>958</v>
-      </c>
-      <c r="D240" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
+        <v>959</v>
+      </c>
+      <c r="B241" t="s">
         <v>960</v>
       </c>
-      <c r="B241" t="s">
+      <c r="C241" t="s">
         <v>961</v>
       </c>
-      <c r="C241" t="s">
+      <c r="D241" t="s">
         <v>962</v>
-      </c>
-      <c r="D241" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
+        <v>963</v>
+      </c>
+      <c r="B242" t="s">
         <v>964</v>
       </c>
-      <c r="B242" t="s">
+      <c r="C242" t="s">
         <v>965</v>
       </c>
-      <c r="C242" t="s">
+      <c r="D242" t="s">
         <v>966</v>
-      </c>
-      <c r="D242" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
+        <v>967</v>
+      </c>
+      <c r="B243" t="s">
         <v>968</v>
       </c>
-      <c r="B243" t="s">
+      <c r="C243" t="s">
         <v>969</v>
       </c>
-      <c r="C243" t="s">
+      <c r="D243" t="s">
         <v>970</v>
-      </c>
-      <c r="D243" t="s">
-        <v>971</v>
       </c>
     </row>
   </sheetData>
